--- a/biology/Botanique/Aechmea_victoriana/Aechmea_victoriana.xlsx
+++ b/biology/Botanique/Aechmea_victoriana/Aechmea_victoriana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea victoriana · Aechmée victorienne, Aechméa victorienne
 L'Aechmée victorienne ou Aechméa victorienne (Aechmea victoriana) est une espèce de plantes de la famille des Bromeliaceae, endémique de la forêt atlantique (mata atlântica en portugais) au Brésil.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aechmea capixabae L.B.Sm.
 Aechmea victoriana var. discolor M.B.Foster
